--- a/Code/Results/Cases/Case_0_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_109/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.685278358652796</v>
+        <v>2.834502210481444</v>
       </c>
       <c r="D2">
-        <v>1.850387163987927</v>
+        <v>2.921953217054471</v>
       </c>
       <c r="E2">
-        <v>30.8939263317862</v>
+        <v>16.7027395269962</v>
       </c>
       <c r="F2">
-        <v>26.26273398367713</v>
+        <v>20.05797417919059</v>
       </c>
       <c r="G2">
-        <v>39.2722678419956</v>
+        <v>24.47440444073665</v>
       </c>
       <c r="H2">
-        <v>10.08566141346995</v>
+        <v>11.41363832979199</v>
       </c>
       <c r="I2">
-        <v>19.26073346002923</v>
+        <v>16.38611221003454</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
-        <v>20.23165743323394</v>
+        <v>17.07954586972049</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.546362654473799</v>
+        <v>2.808503672603281</v>
       </c>
       <c r="D3">
-        <v>1.820894293862698</v>
+        <v>2.921686010819876</v>
       </c>
       <c r="E3">
-        <v>28.60790367746753</v>
+        <v>15.73979365400252</v>
       </c>
       <c r="F3">
-        <v>24.40137913916096</v>
+        <v>19.55191849635492</v>
       </c>
       <c r="G3">
-        <v>36.47022730485035</v>
+        <v>23.37815233946195</v>
       </c>
       <c r="H3">
-        <v>9.585700207438336</v>
+        <v>11.34212789423975</v>
       </c>
       <c r="I3">
-        <v>17.8809265426009</v>
+        <v>16.09835956784373</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
-        <v>18.7789570312008</v>
+        <v>16.76986830385361</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.458614719979283</v>
+        <v>2.7931115702881</v>
       </c>
       <c r="D4">
-        <v>1.803454734604949</v>
+        <v>2.921759718579023</v>
       </c>
       <c r="E4">
-        <v>27.14239935668837</v>
+        <v>15.12273035622041</v>
       </c>
       <c r="F4">
-        <v>23.20744265047295</v>
+        <v>19.24103833372577</v>
       </c>
       <c r="G4">
-        <v>34.66627549816486</v>
+        <v>22.68586246961432</v>
       </c>
       <c r="H4">
-        <v>9.27380554024994</v>
+        <v>11.30089585243082</v>
       </c>
       <c r="I4">
-        <v>16.99096797979799</v>
+        <v>15.9241860918018</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
-        <v>17.85286660077074</v>
+        <v>16.58213466568255</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.422283914241401</v>
+        <v>2.786989497203994</v>
       </c>
       <c r="D5">
-        <v>1.796505057955669</v>
+        <v>2.921849622287124</v>
       </c>
       <c r="E5">
-        <v>26.52918790723296</v>
+        <v>14.86504626354035</v>
       </c>
       <c r="F5">
-        <v>22.74978188795685</v>
+        <v>19.11452490033642</v>
       </c>
       <c r="G5">
-        <v>33.90996985133179</v>
+        <v>22.39939137988523</v>
       </c>
       <c r="H5">
-        <v>9.145612030119537</v>
+        <v>11.28478012596251</v>
       </c>
       <c r="I5">
-        <v>16.66188929369408</v>
+        <v>15.85394126840663</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188765</v>
       </c>
       <c r="O5">
-        <v>17.52259382212331</v>
+        <v>16.50634811581754</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.416218065132552</v>
+        <v>2.785982202230878</v>
       </c>
       <c r="D6">
-        <v>1.795360257416107</v>
+        <v>2.921868168734245</v>
       </c>
       <c r="E6">
-        <v>26.42638544819225</v>
+        <v>14.82189077943935</v>
       </c>
       <c r="F6">
-        <v>22.6731588808026</v>
+        <v>19.09353423208228</v>
       </c>
       <c r="G6">
-        <v>33.78310217554954</v>
+        <v>22.35157473898746</v>
       </c>
       <c r="H6">
-        <v>9.124264246333983</v>
+        <v>11.28214597632855</v>
       </c>
       <c r="I6">
-        <v>16.60978719291686</v>
+        <v>15.84232435492578</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
-        <v>17.46736441706384</v>
+        <v>16.49381030925665</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.4581270050356</v>
+        <v>2.793028388484726</v>
       </c>
       <c r="D7">
-        <v>1.803360386525706</v>
+        <v>2.92176068852762</v>
       </c>
       <c r="E7">
-        <v>27.13419474857024</v>
+        <v>15.11927995754622</v>
       </c>
       <c r="F7">
-        <v>23.20131277573689</v>
+        <v>19.23933114346418</v>
       </c>
       <c r="G7">
-        <v>34.65616166480864</v>
+        <v>22.68201600144635</v>
       </c>
       <c r="H7">
-        <v>9.272080897725896</v>
+        <v>11.30067571247396</v>
       </c>
       <c r="I7">
-        <v>16.98597442306249</v>
+        <v>15.92323564679213</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304767603</v>
       </c>
       <c r="O7">
-        <v>17.84843858792021</v>
+        <v>16.58110953531916</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.637913282755873</v>
+        <v>2.825423502010025</v>
       </c>
       <c r="D8">
-        <v>1.840071905960872</v>
+        <v>2.921811781287785</v>
       </c>
       <c r="E8">
-        <v>30.11826758957899</v>
+        <v>16.37621570653944</v>
       </c>
       <c r="F8">
-        <v>25.63236103529323</v>
+        <v>19.88364487339634</v>
       </c>
       <c r="G8">
-        <v>38.3233232609381</v>
+        <v>24.10066096499387</v>
       </c>
       <c r="H8">
-        <v>9.914371664684641</v>
+        <v>11.38843486064322</v>
       </c>
       <c r="I8">
-        <v>18.79376562516564</v>
+        <v>16.28643572825336</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656867</v>
       </c>
       <c r="O8">
-        <v>19.73991287654045</v>
+        <v>16.97233525539156</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.98033756245559</v>
+        <v>2.893173323068783</v>
       </c>
       <c r="D9">
-        <v>1.917973954195638</v>
+        <v>2.923795484154702</v>
       </c>
       <c r="E9">
-        <v>35.50136867666692</v>
+        <v>18.7794094180861</v>
       </c>
       <c r="F9">
-        <v>29.97621145389179</v>
+        <v>21.13692313316237</v>
       </c>
       <c r="G9">
-        <v>44.86334879764336</v>
+        <v>26.71277809985466</v>
       </c>
       <c r="H9">
-        <v>11.13181451005932</v>
+        <v>11.58109830804097</v>
       </c>
       <c r="I9">
-        <v>22.006348256383</v>
+        <v>17.01409898298131</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
-        <v>23.1251028886115</v>
+        <v>17.75380677738767</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.235363852842094</v>
+        <v>2.945095738912221</v>
       </c>
       <c r="D10">
-        <v>1.979834280950801</v>
+        <v>2.926397385555783</v>
       </c>
       <c r="E10">
-        <v>39.20564027652696</v>
+        <v>20.4563019867387</v>
       </c>
       <c r="F10">
-        <v>32.91502953371226</v>
+        <v>22.04018808408795</v>
       </c>
       <c r="G10">
-        <v>49.29056581974685</v>
+        <v>28.50850979450653</v>
       </c>
       <c r="H10">
-        <v>12.223613455394</v>
+        <v>11.73422960676105</v>
       </c>
       <c r="I10">
-        <v>24.17454624455217</v>
+        <v>17.5522062056261</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
-        <v>25.41262207603182</v>
+        <v>18.3302793736581</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.345651455989922</v>
+        <v>2.969088735992326</v>
       </c>
       <c r="D11">
-        <v>2.009273475552821</v>
+        <v>2.927828707778827</v>
       </c>
       <c r="E11">
-        <v>40.84551932566232</v>
+        <v>21.17649355917162</v>
       </c>
       <c r="F11">
-        <v>34.20034531098361</v>
+        <v>22.44514234115031</v>
       </c>
       <c r="G11">
-        <v>51.22789982888071</v>
+        <v>29.29539143617675</v>
       </c>
       <c r="H11">
-        <v>12.701865720885</v>
+        <v>11.80618519361414</v>
       </c>
       <c r="I11">
-        <v>25.12192529179658</v>
+        <v>17.79655404344218</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
-        <v>26.41286921529519</v>
+        <v>18.59173846750071</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.386599761570587</v>
+        <v>2.978219953220289</v>
       </c>
       <c r="D12">
-        <v>2.020638746287494</v>
+        <v>2.928406236134329</v>
       </c>
       <c r="E12">
-        <v>41.46089353153979</v>
+        <v>21.44311882955938</v>
       </c>
       <c r="F12">
-        <v>34.67996392461013</v>
+        <v>22.5974700366945</v>
       </c>
       <c r="G12">
-        <v>51.95101676803719</v>
+        <v>29.5888309626042</v>
       </c>
       <c r="H12">
-        <v>12.88044020919722</v>
+        <v>11.83374313777817</v>
       </c>
       <c r="I12">
-        <v>25.4753301896296</v>
+        <v>17.88892260391525</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
-        <v>26.78611296334596</v>
+        <v>18.69053090742778</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.377816929926405</v>
+        <v>2.976251483190431</v>
       </c>
       <c r="D13">
-        <v>2.018180814288744</v>
+        <v>2.928280277095107</v>
       </c>
       <c r="E13">
-        <v>41.32859566227317</v>
+        <v>21.38596685349934</v>
       </c>
       <c r="F13">
-        <v>34.57697987685286</v>
+        <v>22.56471137841228</v>
       </c>
       <c r="G13">
-        <v>51.79573909224903</v>
+        <v>29.52583837487112</v>
       </c>
       <c r="H13">
-        <v>12.84209138931926</v>
+        <v>11.8277945843078</v>
       </c>
       <c r="I13">
-        <v>25.39945155518234</v>
+        <v>17.86903803392805</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617568</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
-        <v>26.70596934337732</v>
+        <v>18.66926542142354</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.349036586378541</v>
+        <v>2.969839099305567</v>
       </c>
       <c r="D14">
-        <v>2.010203951249356</v>
+        <v>2.927875510157183</v>
       </c>
       <c r="E14">
-        <v>40.89625343119854</v>
+        <v>21.198550945294</v>
       </c>
       <c r="F14">
-        <v>34.23994420969242</v>
+        <v>22.45769576608209</v>
       </c>
       <c r="G14">
-        <v>51.28759853497902</v>
+        <v>29.31962492154876</v>
       </c>
       <c r="H14">
-        <v>12.71660709281667</v>
+        <v>11.80844630836669</v>
       </c>
       <c r="I14">
-        <v>25.15110572299621</v>
+        <v>17.80415702362767</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
-        <v>26.44368529175831</v>
+        <v>18.59987109836093</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.331301884986439</v>
+        <v>2.965917026405468</v>
       </c>
       <c r="D15">
-        <v>2.005347201710937</v>
+        <v>2.927632201064195</v>
       </c>
       <c r="E15">
-        <v>40.63072914071012</v>
+        <v>21.08296049945123</v>
       </c>
       <c r="F15">
-        <v>34.03258525038616</v>
+        <v>22.39200815117349</v>
       </c>
       <c r="G15">
-        <v>50.97499552373601</v>
+        <v>29.19271661739445</v>
       </c>
       <c r="H15">
-        <v>12.63941880457285</v>
+        <v>11.79663468415387</v>
       </c>
       <c r="I15">
-        <v>24.99829845055693</v>
+        <v>17.76439178787451</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549471</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
-        <v>26.28231758279848</v>
+        <v>18.55733387493612</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.228041760465723</v>
+        <v>2.943534559880475</v>
       </c>
       <c r="D16">
-        <v>1.977938966271081</v>
+        <v>2.926308821137225</v>
       </c>
       <c r="E16">
-        <v>39.09763352671991</v>
+        <v>20.40838086130212</v>
       </c>
       <c r="F16">
-        <v>32.83001914110412</v>
+        <v>22.01358935488452</v>
       </c>
       <c r="G16">
-        <v>49.162456442546</v>
+        <v>28.45646176678661</v>
       </c>
       <c r="H16">
-        <v>12.1919977197582</v>
+        <v>11.72957162029912</v>
       </c>
       <c r="I16">
-        <v>24.1118700679809</v>
+        <v>17.53622022891942</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
-        <v>25.34646421757915</v>
+        <v>18.31316768169064</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.163234094135497</v>
+        <v>2.929893489230503</v>
       </c>
       <c r="D17">
-        <v>1.961477392595149</v>
+        <v>2.925560342612977</v>
       </c>
       <c r="E17">
-        <v>38.14614089938625</v>
+        <v>19.98365333694488</v>
       </c>
       <c r="F17">
-        <v>32.07928429853251</v>
+        <v>21.77979758343491</v>
       </c>
       <c r="G17">
-        <v>48.03123610009602</v>
+        <v>27.99693971637666</v>
       </c>
       <c r="H17">
-        <v>11.9128816957954</v>
+        <v>11.68900436561275</v>
       </c>
       <c r="I17">
-        <v>23.55827083275216</v>
+        <v>17.39606113090706</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
-        <v>24.76219712240862</v>
+        <v>18.16310401839639</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.125419015942501</v>
+        <v>2.922083121824703</v>
       </c>
       <c r="D18">
-        <v>1.952129210162254</v>
+        <v>2.925153159089977</v>
       </c>
       <c r="E18">
-        <v>37.59455151581257</v>
+        <v>19.73534616995746</v>
       </c>
       <c r="F18">
-        <v>31.64260633569219</v>
+        <v>21.64477615587819</v>
       </c>
       <c r="G18">
-        <v>47.37334074383306</v>
+        <v>27.72982129512856</v>
       </c>
       <c r="H18">
-        <v>11.75060024718948</v>
+        <v>11.66588845484039</v>
       </c>
       <c r="I18">
-        <v>23.23617261700509</v>
+        <v>17.315409512441</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680425</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
-        <v>24.42232515686601</v>
+        <v>18.07672379090914</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.112522604412666</v>
+        <v>2.919445028707286</v>
       </c>
       <c r="D19">
-        <v>1.948983865543162</v>
+        <v>2.925019302266418</v>
       </c>
       <c r="E19">
-        <v>37.40702657875727</v>
+        <v>19.65058295046888</v>
       </c>
       <c r="F19">
-        <v>31.49390858741536</v>
+        <v>21.59897088845631</v>
       </c>
       <c r="G19">
-        <v>47.14932957588449</v>
+        <v>27.63890367331787</v>
       </c>
       <c r="H19">
-        <v>11.6953521730386</v>
+        <v>11.6580997302975</v>
       </c>
       <c r="I19">
-        <v>23.12647598929451</v>
+        <v>17.28809914378477</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880245</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
-        <v>24.30658695494603</v>
+        <v>18.04746857153799</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.170188753755126</v>
+        <v>2.931341976901293</v>
       </c>
       <c r="D20">
-        <v>1.963217125356537</v>
+        <v>2.925637606425657</v>
       </c>
       <c r="E20">
-        <v>38.24786958288858</v>
+        <v>20.02928160063097</v>
       </c>
       <c r="F20">
-        <v>32.15970374355235</v>
+        <v>21.80474333456365</v>
       </c>
       <c r="G20">
-        <v>48.15240304515071</v>
+        <v>28.04614951869</v>
       </c>
       <c r="H20">
-        <v>11.94277349402201</v>
+        <v>11.69330047348328</v>
       </c>
       <c r="I20">
-        <v>23.6175818128263</v>
+        <v>17.41098573139981</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799484619</v>
       </c>
       <c r="O20">
-        <v>24.82478651327676</v>
+        <v>18.17908631470507</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.35751212676357</v>
+        <v>2.971721398969928</v>
       </c>
       <c r="D21">
-        <v>2.012540777719931</v>
+        <v>2.927993436917687</v>
       </c>
       <c r="E21">
-        <v>41.02338737595947</v>
+        <v>21.25376469477846</v>
       </c>
       <c r="F21">
-        <v>34.33912978992443</v>
+        <v>22.48915776837041</v>
       </c>
       <c r="G21">
-        <v>51.43713252563268</v>
+        <v>29.38031949041861</v>
       </c>
       <c r="H21">
-        <v>12.75353247372738</v>
+        <v>11.81412111816867</v>
       </c>
       <c r="I21">
-        <v>25.22419385307159</v>
+        <v>17.82321926515937</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633596</v>
+        <v>21.70751365554066</v>
       </c>
       <c r="O21">
-        <v>26.52087213710691</v>
+        <v>18.62026057364821</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.475191472070917</v>
+        <v>2.998373683119186</v>
       </c>
       <c r="D22">
-        <v>2.046062090769579</v>
+        <v>2.929740081760873</v>
       </c>
       <c r="E22">
-        <v>42.80515257819296</v>
+        <v>22.01852129484435</v>
       </c>
       <c r="F22">
-        <v>35.72229164629732</v>
+        <v>22.93045133276988</v>
       </c>
       <c r="G22">
-        <v>53.52292809722704</v>
+        <v>30.22576161766649</v>
       </c>
       <c r="H22">
-        <v>13.26873746338596</v>
+        <v>11.89488114835638</v>
       </c>
       <c r="I22">
-        <v>26.24318281997414</v>
+        <v>18.09165908564879</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
-        <v>27.59729450462188</v>
+        <v>18.90728699567935</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.412815265986318</v>
+        <v>2.984127550908692</v>
       </c>
       <c r="D23">
-        <v>2.028041726021224</v>
+        <v>2.928788961440894</v>
       </c>
       <c r="E23">
-        <v>41.85680586632169</v>
+        <v>21.61359423408213</v>
       </c>
       <c r="F23">
-        <v>34.98772773638176</v>
+        <v>22.69552572357221</v>
       </c>
       <c r="G23">
-        <v>52.41508977596493</v>
+        <v>29.77702354447638</v>
       </c>
       <c r="H23">
-        <v>12.99506102151881</v>
+        <v>11.85162039647262</v>
       </c>
       <c r="I23">
-        <v>25.70207576503692</v>
+        <v>17.94850833355131</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
-        <v>27.02562128674769</v>
+        <v>18.75424828378117</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.167046285453807</v>
+        <v>2.930687015147974</v>
       </c>
       <c r="D24">
-        <v>1.96243023370893</v>
+        <v>2.92560260343284</v>
       </c>
       <c r="E24">
-        <v>38.20189232479304</v>
+        <v>20.00866591621054</v>
       </c>
       <c r="F24">
-        <v>32.12336192896067</v>
+        <v>21.79346725221375</v>
       </c>
       <c r="G24">
-        <v>48.09764699759555</v>
+        <v>28.02391088581589</v>
       </c>
       <c r="H24">
-        <v>11.92926507072096</v>
+        <v>11.69135755756665</v>
       </c>
       <c r="I24">
-        <v>23.59077925658416</v>
+        <v>17.40423853716608</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911916</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
-        <v>24.79650223262198</v>
+        <v>18.17186104263799</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.882213543806286</v>
+        <v>2.874436613818586</v>
       </c>
       <c r="D25">
-        <v>1.896172267419179</v>
+        <v>2.923057563585686</v>
       </c>
       <c r="E25">
-        <v>34.09190789028894</v>
+        <v>18.12383623505977</v>
       </c>
       <c r="F25">
-        <v>28.84640518733045</v>
+        <v>20.80018057611101</v>
       </c>
       <c r="G25">
-        <v>43.16202877216124</v>
+        <v>26.0265544071983</v>
       </c>
       <c r="H25">
-        <v>10.8064788689476</v>
+        <v>11.5268708537711</v>
       </c>
       <c r="I25">
-        <v>21.17183243716255</v>
+        <v>16.81621279524714</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088413</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
-        <v>22.24526945537773</v>
+        <v>17.5415371771969</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_109/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_109/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.834502210481444</v>
+        <v>2.685278358652743</v>
       </c>
       <c r="D2">
-        <v>2.921953217054471</v>
+        <v>1.85038716398762</v>
       </c>
       <c r="E2">
-        <v>16.7027395269962</v>
+        <v>30.89392633178618</v>
       </c>
       <c r="F2">
-        <v>20.05797417919059</v>
+        <v>26.26273398367717</v>
       </c>
       <c r="G2">
-        <v>24.47440444073665</v>
+        <v>39.27226784199568</v>
       </c>
       <c r="H2">
-        <v>11.41363832979199</v>
+        <v>10.08566141346993</v>
       </c>
       <c r="I2">
-        <v>16.38611221003454</v>
+        <v>19.26073346002926</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
-        <v>17.07954586972049</v>
+        <v>20.23165743323397</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.808503672603281</v>
+        <v>2.546362654473799</v>
       </c>
       <c r="D3">
-        <v>2.921686010819876</v>
+        <v>1.820894293862698</v>
       </c>
       <c r="E3">
-        <v>15.73979365400252</v>
+        <v>28.6079036774675</v>
       </c>
       <c r="F3">
-        <v>19.55191849635492</v>
+        <v>24.40137913916094</v>
       </c>
       <c r="G3">
-        <v>23.37815233946195</v>
+        <v>36.47022730485035</v>
       </c>
       <c r="H3">
-        <v>11.34212789423975</v>
+        <v>9.585700207438331</v>
       </c>
       <c r="I3">
-        <v>16.09835956784373</v>
+        <v>17.88092654260088</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
-        <v>16.76986830385361</v>
+        <v>18.77895703120078</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.7931115702881</v>
+        <v>2.458614719979298</v>
       </c>
       <c r="D4">
-        <v>2.921759718579023</v>
+        <v>1.803454734605008</v>
       </c>
       <c r="E4">
-        <v>15.12273035622041</v>
+        <v>27.14239935668832</v>
       </c>
       <c r="F4">
-        <v>19.24103833372577</v>
+        <v>23.20744265047292</v>
       </c>
       <c r="G4">
-        <v>22.68586246961432</v>
+        <v>34.66627549816491</v>
       </c>
       <c r="H4">
-        <v>11.30089585243082</v>
+        <v>9.273805540249922</v>
       </c>
       <c r="I4">
-        <v>15.9241860918018</v>
+        <v>16.99096797979799</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
-        <v>16.58213466568255</v>
+        <v>17.85286660077072</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.786989497203994</v>
+        <v>2.422283914241386</v>
       </c>
       <c r="D5">
-        <v>2.921849622287124</v>
+        <v>1.796505057955619</v>
       </c>
       <c r="E5">
-        <v>14.86504626354035</v>
+        <v>26.52918790723296</v>
       </c>
       <c r="F5">
-        <v>19.11452490033642</v>
+        <v>22.74978188795684</v>
       </c>
       <c r="G5">
-        <v>22.39939137988523</v>
+        <v>33.90996985133176</v>
       </c>
       <c r="H5">
-        <v>11.28478012596251</v>
+        <v>9.145612030119493</v>
       </c>
       <c r="I5">
-        <v>15.85394126840663</v>
+        <v>16.66188929369405</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188765</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
-        <v>16.50634811581754</v>
+        <v>17.52259382212328</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.785982202230878</v>
+        <v>2.416218065132513</v>
       </c>
       <c r="D6">
-        <v>2.921868168734245</v>
+        <v>1.795360257416101</v>
       </c>
       <c r="E6">
-        <v>14.82189077943935</v>
+        <v>26.42638544819233</v>
       </c>
       <c r="F6">
-        <v>19.09353423208228</v>
+        <v>22.67315888080259</v>
       </c>
       <c r="G6">
-        <v>22.35157473898746</v>
+        <v>33.78310217554952</v>
       </c>
       <c r="H6">
-        <v>11.28214597632855</v>
+        <v>9.124264246333974</v>
       </c>
       <c r="I6">
-        <v>15.84232435492578</v>
+        <v>16.60978719291686</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
-        <v>16.49381030925665</v>
+        <v>17.46736441706383</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.793028388484726</v>
+        <v>2.458127005035583</v>
       </c>
       <c r="D7">
-        <v>2.92176068852762</v>
+        <v>1.803360386525527</v>
       </c>
       <c r="E7">
-        <v>15.11927995754622</v>
+        <v>27.13419474857021</v>
       </c>
       <c r="F7">
-        <v>19.23933114346418</v>
+        <v>23.2013127757369</v>
       </c>
       <c r="G7">
-        <v>22.68201600144635</v>
+        <v>34.65616166480867</v>
       </c>
       <c r="H7">
-        <v>11.30067571247396</v>
+        <v>9.272080897725871</v>
       </c>
       <c r="I7">
-        <v>15.92323564679213</v>
+        <v>16.98597442306249</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304767603</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
-        <v>16.58110953531916</v>
+        <v>17.84843858792021</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.825423502010025</v>
+        <v>2.637913282755865</v>
       </c>
       <c r="D8">
-        <v>2.921811781287785</v>
+        <v>1.840071905960872</v>
       </c>
       <c r="E8">
-        <v>16.37621570653944</v>
+        <v>30.11826758957902</v>
       </c>
       <c r="F8">
-        <v>19.88364487339634</v>
+        <v>25.63236103529324</v>
       </c>
       <c r="G8">
-        <v>24.10066096499387</v>
+        <v>38.32332326093811</v>
       </c>
       <c r="H8">
-        <v>11.38843486064322</v>
+        <v>9.914371664684648</v>
       </c>
       <c r="I8">
-        <v>16.28643572825336</v>
+        <v>18.79376562516564</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656867</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
-        <v>16.97233525539156</v>
+        <v>19.73991287654046</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.893173323068783</v>
+        <v>2.980337562455575</v>
       </c>
       <c r="D9">
-        <v>2.923795484154702</v>
+        <v>1.917973954195701</v>
       </c>
       <c r="E9">
-        <v>18.7794094180861</v>
+        <v>35.50136867666693</v>
       </c>
       <c r="F9">
-        <v>21.13692313316237</v>
+        <v>29.97621145389179</v>
       </c>
       <c r="G9">
-        <v>26.71277809985466</v>
+        <v>44.86334879764332</v>
       </c>
       <c r="H9">
-        <v>11.58109830804097</v>
+        <v>11.13181451005932</v>
       </c>
       <c r="I9">
-        <v>17.01409898298131</v>
+        <v>22.00634825638299</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
-        <v>17.75380677738767</v>
+        <v>23.1251028886115</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.945095738912221</v>
+        <v>3.235363852842136</v>
       </c>
       <c r="D10">
-        <v>2.926397385555783</v>
+        <v>1.979834280950697</v>
       </c>
       <c r="E10">
-        <v>20.4563019867387</v>
+        <v>39.20564027652705</v>
       </c>
       <c r="F10">
-        <v>22.04018808408795</v>
+        <v>32.91502953371233</v>
       </c>
       <c r="G10">
-        <v>28.50850979450653</v>
+        <v>49.29056581974694</v>
       </c>
       <c r="H10">
-        <v>11.73422960676105</v>
+        <v>12.22361345539403</v>
       </c>
       <c r="I10">
-        <v>17.5522062056261</v>
+        <v>24.17454624455224</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203865</v>
       </c>
       <c r="O10">
-        <v>18.3302793736581</v>
+        <v>25.41262207603187</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.969088735992326</v>
+        <v>3.345651455989971</v>
       </c>
       <c r="D11">
-        <v>2.927828707778827</v>
+        <v>2.009273475552705</v>
       </c>
       <c r="E11">
-        <v>21.17649355917162</v>
+        <v>40.84551932566231</v>
       </c>
       <c r="F11">
-        <v>22.44514234115031</v>
+        <v>34.20034531098366</v>
       </c>
       <c r="G11">
-        <v>29.29539143617675</v>
+        <v>51.22789982888072</v>
       </c>
       <c r="H11">
-        <v>11.80618519361414</v>
+        <v>12.701865720885</v>
       </c>
       <c r="I11">
-        <v>17.79655404344218</v>
+        <v>25.12192529179659</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
-        <v>18.59173846750071</v>
+        <v>26.41286921529519</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.978219953220289</v>
+        <v>3.38659976157053</v>
       </c>
       <c r="D12">
-        <v>2.928406236134329</v>
+        <v>2.020638746287383</v>
       </c>
       <c r="E12">
-        <v>21.44311882955938</v>
+        <v>41.46089353153982</v>
       </c>
       <c r="F12">
-        <v>22.5974700366945</v>
+        <v>34.67996392461017</v>
       </c>
       <c r="G12">
-        <v>29.5888309626042</v>
+        <v>51.95101676803728</v>
       </c>
       <c r="H12">
-        <v>11.83374313777817</v>
+        <v>12.88044020919719</v>
       </c>
       <c r="I12">
-        <v>17.88892260391525</v>
+        <v>25.47533018962961</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
-        <v>18.69053090742778</v>
+        <v>26.78611296334599</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.976251483190431</v>
+        <v>3.377816929926326</v>
       </c>
       <c r="D13">
-        <v>2.928280277095107</v>
+        <v>2.01818081428881</v>
       </c>
       <c r="E13">
-        <v>21.38596685349934</v>
+        <v>41.32859566227317</v>
       </c>
       <c r="F13">
-        <v>22.56471137841228</v>
+        <v>34.57697987685294</v>
       </c>
       <c r="G13">
-        <v>29.52583837487112</v>
+        <v>51.79573909224914</v>
       </c>
       <c r="H13">
-        <v>11.8277945843078</v>
+        <v>12.8420913893193</v>
       </c>
       <c r="I13">
-        <v>17.86903803392805</v>
+        <v>25.39945155518236</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617571</v>
       </c>
       <c r="O13">
-        <v>18.66926542142354</v>
+        <v>26.70596934337738</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.969839099305567</v>
+        <v>3.349036586378483</v>
       </c>
       <c r="D14">
-        <v>2.927875510157183</v>
+        <v>2.010203951249348</v>
       </c>
       <c r="E14">
-        <v>21.198550945294</v>
+        <v>40.89625343119842</v>
       </c>
       <c r="F14">
-        <v>22.45769576608209</v>
+        <v>34.23994420969231</v>
       </c>
       <c r="G14">
-        <v>29.31962492154876</v>
+        <v>51.2875985349789</v>
       </c>
       <c r="H14">
-        <v>11.80844630836669</v>
+        <v>12.71660709281663</v>
       </c>
       <c r="I14">
-        <v>17.80415702362767</v>
+        <v>25.15110572299612</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188478</v>
       </c>
       <c r="O14">
-        <v>18.59987109836093</v>
+        <v>26.44368529175821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.965917026405468</v>
+        <v>3.331301884986405</v>
       </c>
       <c r="D15">
-        <v>2.927632201064195</v>
+        <v>2.005347201710821</v>
       </c>
       <c r="E15">
-        <v>21.08296049945123</v>
+        <v>40.63072914070997</v>
       </c>
       <c r="F15">
-        <v>22.39200815117349</v>
+        <v>34.03258525038606</v>
       </c>
       <c r="G15">
-        <v>29.19271661739445</v>
+        <v>50.9749955237358</v>
       </c>
       <c r="H15">
-        <v>11.79663468415387</v>
+        <v>12.63941880457281</v>
       </c>
       <c r="I15">
-        <v>17.76439178787451</v>
+        <v>24.99829845055682</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549474</v>
       </c>
       <c r="O15">
-        <v>18.55733387493612</v>
+        <v>26.28231758279836</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.943534559880475</v>
+        <v>3.22804176046573</v>
       </c>
       <c r="D16">
-        <v>2.926308821137225</v>
+        <v>1.97793896627091</v>
       </c>
       <c r="E16">
-        <v>20.40838086130212</v>
+        <v>39.09763352671991</v>
       </c>
       <c r="F16">
-        <v>22.01358935488452</v>
+        <v>32.83001914110415</v>
       </c>
       <c r="G16">
-        <v>28.45646176678661</v>
+        <v>49.16245644254605</v>
       </c>
       <c r="H16">
-        <v>11.72957162029912</v>
+        <v>12.19199771975821</v>
       </c>
       <c r="I16">
-        <v>17.53622022891942</v>
+        <v>24.11187006798092</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
-        <v>18.31316768169064</v>
+        <v>25.34646421757916</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.929893489230503</v>
+        <v>3.163234094135569</v>
       </c>
       <c r="D17">
-        <v>2.925560342612977</v>
+        <v>1.961477392595086</v>
       </c>
       <c r="E17">
-        <v>19.98365333694488</v>
+        <v>38.14614089938635</v>
       </c>
       <c r="F17">
-        <v>21.77979758343491</v>
+        <v>32.07928429853244</v>
       </c>
       <c r="G17">
-        <v>27.99693971637666</v>
+        <v>48.03123610009586</v>
       </c>
       <c r="H17">
-        <v>11.68900436561275</v>
+        <v>11.91288169579538</v>
       </c>
       <c r="I17">
-        <v>17.39606113090706</v>
+        <v>23.55827083275214</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119275</v>
       </c>
       <c r="O17">
-        <v>18.16310401839639</v>
+        <v>24.76219712240859</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.922083121824703</v>
+        <v>3.125419015942408</v>
       </c>
       <c r="D18">
-        <v>2.925153159089977</v>
+        <v>1.952129210162129</v>
       </c>
       <c r="E18">
-        <v>19.73534616995746</v>
+        <v>37.59455151581252</v>
       </c>
       <c r="F18">
-        <v>21.64477615587819</v>
+        <v>31.64260633569212</v>
       </c>
       <c r="G18">
-        <v>27.72982129512856</v>
+        <v>47.37334074383293</v>
       </c>
       <c r="H18">
-        <v>11.66588845484039</v>
+        <v>11.75060024718945</v>
       </c>
       <c r="I18">
-        <v>17.315409512441</v>
+        <v>23.23617261700502</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680427</v>
       </c>
       <c r="O18">
-        <v>18.07672379090914</v>
+        <v>24.42232515686593</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.919445028707286</v>
+        <v>3.112522604412652</v>
       </c>
       <c r="D19">
-        <v>2.925019302266418</v>
+        <v>1.948983865542869</v>
       </c>
       <c r="E19">
-        <v>19.65058295046888</v>
+        <v>37.40702657875708</v>
       </c>
       <c r="F19">
-        <v>21.59897088845631</v>
+        <v>31.49390858741526</v>
       </c>
       <c r="G19">
-        <v>27.63890367331787</v>
+        <v>47.14932957588425</v>
       </c>
       <c r="H19">
-        <v>11.6580997302975</v>
+        <v>11.69535217303856</v>
       </c>
       <c r="I19">
-        <v>17.28809914378477</v>
+        <v>23.12647598929437</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880245</v>
       </c>
       <c r="O19">
-        <v>18.04746857153799</v>
+        <v>24.30658695494588</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.931341976901293</v>
+        <v>3.170188753755084</v>
       </c>
       <c r="D20">
-        <v>2.925637606425657</v>
+        <v>1.9632171253566</v>
       </c>
       <c r="E20">
-        <v>20.02928160063097</v>
+        <v>38.24786958288867</v>
       </c>
       <c r="F20">
-        <v>21.80474333456365</v>
+        <v>32.1597037435523</v>
       </c>
       <c r="G20">
-        <v>28.04614951869</v>
+        <v>48.15240304515063</v>
       </c>
       <c r="H20">
-        <v>11.69330047348328</v>
+        <v>11.94277349402196</v>
       </c>
       <c r="I20">
-        <v>17.41098573139981</v>
+        <v>23.61758181282626</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799484619</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
-        <v>18.17908631470507</v>
+        <v>24.82478651327672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.971721398969928</v>
+        <v>3.357512126763635</v>
       </c>
       <c r="D21">
-        <v>2.927993436917687</v>
+        <v>2.012540777719811</v>
       </c>
       <c r="E21">
-        <v>21.25376469477846</v>
+        <v>41.02338737595945</v>
       </c>
       <c r="F21">
-        <v>22.48915776837041</v>
+        <v>34.33912978992442</v>
       </c>
       <c r="G21">
-        <v>29.38031949041861</v>
+        <v>51.43713252563267</v>
       </c>
       <c r="H21">
-        <v>11.81412111816867</v>
+        <v>12.75353247372735</v>
       </c>
       <c r="I21">
-        <v>17.82321926515937</v>
+        <v>25.22419385307157</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554066</v>
+        <v>31.50948335633596</v>
       </c>
       <c r="O21">
-        <v>18.62026057364821</v>
+        <v>26.52087213710688</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.998373683119186</v>
+        <v>3.475191472070852</v>
       </c>
       <c r="D22">
-        <v>2.929740081760873</v>
+        <v>2.046062090769571</v>
       </c>
       <c r="E22">
-        <v>22.01852129484435</v>
+        <v>42.80515257819297</v>
       </c>
       <c r="F22">
-        <v>22.93045133276988</v>
+        <v>35.72229164629741</v>
       </c>
       <c r="G22">
-        <v>30.22576161766649</v>
+        <v>53.52292809722717</v>
       </c>
       <c r="H22">
-        <v>11.89488114835638</v>
+        <v>13.26873746338598</v>
       </c>
       <c r="I22">
-        <v>18.09165908564879</v>
+        <v>26.24318281997417</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050592</v>
       </c>
       <c r="O22">
-        <v>18.90728699567935</v>
+        <v>27.59729450462195</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.984127550908692</v>
+        <v>3.412815265986303</v>
       </c>
       <c r="D23">
-        <v>2.928788961440894</v>
+        <v>2.028041726021038</v>
       </c>
       <c r="E23">
-        <v>21.61359423408213</v>
+        <v>41.85680586632163</v>
       </c>
       <c r="F23">
-        <v>22.69552572357221</v>
+        <v>34.98772773638162</v>
       </c>
       <c r="G23">
-        <v>29.77702354447638</v>
+        <v>52.41508977596473</v>
       </c>
       <c r="H23">
-        <v>11.85162039647262</v>
+        <v>12.99506102151878</v>
       </c>
       <c r="I23">
-        <v>17.94850833355131</v>
+        <v>25.70207576503681</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075506</v>
       </c>
       <c r="O23">
-        <v>18.75424828378117</v>
+        <v>27.02562128674754</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.930687015147974</v>
+        <v>3.167046285453771</v>
       </c>
       <c r="D24">
-        <v>2.92560260343284</v>
+        <v>1.962430233708879</v>
       </c>
       <c r="E24">
-        <v>20.00866591621054</v>
+        <v>38.20189232479302</v>
       </c>
       <c r="F24">
-        <v>21.79346725221375</v>
+        <v>32.12336192896068</v>
       </c>
       <c r="G24">
-        <v>28.02391088581589</v>
+        <v>48.09764699759557</v>
       </c>
       <c r="H24">
-        <v>11.69135755756665</v>
+        <v>11.92926507072096</v>
       </c>
       <c r="I24">
-        <v>17.40423853716608</v>
+        <v>23.59077925658416</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911919</v>
       </c>
       <c r="O24">
-        <v>18.17186104263799</v>
+        <v>24.79650223262197</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.874436613818586</v>
+        <v>2.882213543806265</v>
       </c>
       <c r="D25">
-        <v>2.923057563585686</v>
+        <v>1.896172267419123</v>
       </c>
       <c r="E25">
-        <v>18.12383623505977</v>
+        <v>34.09190789028897</v>
       </c>
       <c r="F25">
-        <v>20.80018057611101</v>
+        <v>28.84640518733045</v>
       </c>
       <c r="G25">
-        <v>26.0265544071983</v>
+        <v>43.16202877216121</v>
       </c>
       <c r="H25">
-        <v>11.5268708537711</v>
+        <v>10.8064788689476</v>
       </c>
       <c r="I25">
-        <v>16.81621279524714</v>
+        <v>21.17183243716255</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088413</v>
       </c>
       <c r="O25">
-        <v>17.5415371771969</v>
+        <v>22.24526945537772</v>
       </c>
     </row>
   </sheetData>
